--- a/Cubic Equations of State Simulator/MATLAB Grader/Assignment 3/Experimental Data/Refrigerant 134a.xlsx
+++ b/Cubic Equations of State Simulator/MATLAB Grader/Assignment 3/Experimental Data/Refrigerant 134a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mariola\Desktop\2022\GitHub\IQ\Cubic Equations of State Simulator\MATLAB Grader\Assignment 3\Problem 5\Experimental Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mariola\Desktop\2022\GitHub\IQ\Cubic Equations of State Simulator\MATLAB Grader\Assignment 3\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38079A1B-0C24-433F-AD3A-08ABA2E61667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA042AB-0D68-49C8-832C-A77D97F66E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32359BE8-BAE4-41A6-8A56-690819260A21}"/>
   </bookViews>

--- a/Cubic Equations of State Simulator/MATLAB Grader/Assignment 3/Experimental Data/Refrigerant 134a.xlsx
+++ b/Cubic Equations of State Simulator/MATLAB Grader/Assignment 3/Experimental Data/Refrigerant 134a.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mariola\Desktop\2022\GitHub\IQ\Cubic Equations of State Simulator\MATLAB Grader\Assignment 3\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA042AB-0D68-49C8-832C-A77D97F66E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD421C-F031-4B87-964C-44ADB96C0D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32359BE8-BAE4-41A6-8A56-690819260A21}"/>
+    <workbookView xWindow="11925" yWindow="2190" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="5" xr2:uid="{32359BE8-BAE4-41A6-8A56-690819260A21}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE A-11" sheetId="1" r:id="rId1"/>
-    <sheet name="TABLE A-12" sheetId="2" r:id="rId2"/>
-    <sheet name="TABLE A-13" sheetId="3" r:id="rId3"/>
+    <sheet name="TABLE A-11E" sheetId="4" r:id="rId2"/>
+    <sheet name="TABLE A-12" sheetId="2" r:id="rId3"/>
+    <sheet name="TABLE A-12E" sheetId="5" r:id="rId4"/>
+    <sheet name="TABLE A-13" sheetId="3" r:id="rId5"/>
+    <sheet name="TABLE A-13E" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <r>
       <t>v</t>
@@ -296,6 +299,99 @@
   <si>
     <t>Table A-13: Superheated refrigerant-134a</t>
   </si>
+  <si>
+    <r>
+      <t>[ft</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/lbm]</t>
+    </r>
+  </si>
+  <si>
+    <t>[BTU/lbm]</t>
+  </si>
+  <si>
+    <t>[BTU/lbm∙R]</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [R]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [psia]</t>
+    </r>
+  </si>
+  <si>
+    <t>Table A-11E: Saturated refrigerant-134a - Temperature table</t>
+  </si>
+  <si>
+    <t>Table A-12E: Saturated refrigerant-134a - Pressure table</t>
+  </si>
+  <si>
+    <t>Table A-13E: Superheated refrigerant-134a</t>
+  </si>
+  <si>
+    <t>[psia]</t>
+  </si>
+  <si>
+    <t>[R]</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +464,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,7 +806,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -705,38 +816,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2576,6 +2687,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB67CFA1-2031-497A-B58A-D11DBC0D154F}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>419.67</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.4320000000000004</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.7769000000000004</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>89.16</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>97.1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.23136000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>424.67</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.5809999999999995</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.136E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.0488999999999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>89.84</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>97.86</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.23044000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>429.67</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.1429999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.4286000000000003</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>90.53</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.008</v>
+      </c>
+      <c r="H6" s="6">
+        <v>98.62</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7.0699999999999999E-3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.22957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>434.67</v>
+      </c>
+      <c r="B7" s="6">
+        <v>11.305999999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.149E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.4969999999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>91.21</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4.5220000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <v>99.37</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.057E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.22875999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>439.67</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12.906000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.1560000000000001E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.4424000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6.0140000000000002</v>
+      </c>
+      <c r="F8" s="6">
+        <v>91.9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6.0410000000000004</v>
+      </c>
+      <c r="H8" s="6">
+        <v>100.12</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.404E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>444.67</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14.68</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.163E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.0495000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="F9" s="6">
+        <v>92.59</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7.5679999999999996</v>
+      </c>
+      <c r="H9" s="6">
+        <v>100.87</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.7479999999999999E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.22728999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>449.67</v>
+      </c>
+      <c r="B10" s="6">
+        <v>16.641999999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2.7097000000000002</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9.0649999999999995</v>
+      </c>
+      <c r="F10" s="6">
+        <v>93.27</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9.1020000000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>101.62</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.22661999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>454.67</v>
+      </c>
+      <c r="B11" s="6">
+        <v>18.806000000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.1780000000000001E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.4146000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10.601000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>93.96</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10.641999999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>102.36</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>459.67</v>
+      </c>
+      <c r="B12" s="6">
+        <v>21.184999999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.1575000000000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>12.143000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="G12" s="6">
+        <v>12.19</v>
+      </c>
+      <c r="H12" s="6">
+        <v>103.1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2.767E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.22542000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>464.67</v>
+      </c>
+      <c r="B13" s="6">
+        <v>23.792999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.9328000000000001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>13.693</v>
+      </c>
+      <c r="F13" s="6">
+        <v>95.32</v>
+      </c>
+      <c r="G13" s="6">
+        <v>13.744999999999999</v>
+      </c>
+      <c r="H13" s="6">
+        <v>103.83</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.22488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>469.67</v>
+      </c>
+      <c r="B14" s="6">
+        <v>26.646000000000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.7358</v>
+      </c>
+      <c r="E14" s="6">
+        <v>15.249000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6">
+        <v>15.308</v>
+      </c>
+      <c r="H14" s="6">
+        <v>104.56</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3.4360000000000002E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.22437000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>474.67</v>
+      </c>
+      <c r="B15" s="6">
+        <v>29.759</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.208E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.5625</v>
+      </c>
+      <c r="E15" s="6">
+        <v>16.812999999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>96.68</v>
+      </c>
+      <c r="G15" s="6">
+        <v>16.879000000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>105.28</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3.7670000000000002E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.22389999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>479.67</v>
+      </c>
+      <c r="B16" s="6">
+        <v>33.146999999999998</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.2160000000000001E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.4097</v>
+      </c>
+      <c r="E16" s="6">
+        <v>18.384</v>
+      </c>
+      <c r="F16" s="6">
+        <v>97.35</v>
+      </c>
+      <c r="G16" s="6">
+        <v>18.459</v>
+      </c>
+      <c r="H16" s="6">
+        <v>106</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4.0969999999999999E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.22345000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>484.67</v>
+      </c>
+      <c r="B17" s="6">
+        <v>36.826000000000001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.225E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.2746</v>
+      </c>
+      <c r="E17" s="6">
+        <v>19.963000000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>98.03</v>
+      </c>
+      <c r="G17" s="6">
+        <v>20.047000000000001</v>
+      </c>
+      <c r="H17" s="6">
+        <v>106.71</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4.4240000000000002E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.22303999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>489.67</v>
+      </c>
+      <c r="B18" s="6">
+        <v>40.813000000000002</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.2330000000000001E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.1548</v>
+      </c>
+      <c r="E18" s="6">
+        <v>21.55</v>
+      </c>
+      <c r="F18" s="6">
+        <v>98.69</v>
+      </c>
+      <c r="G18" s="6">
+        <v>21.643000000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>107.42</v>
+      </c>
+      <c r="I18" s="6">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.22264999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>494.67</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45.124000000000002</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.242E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.0482</v>
+      </c>
+      <c r="E19" s="6">
+        <v>23.145</v>
+      </c>
+      <c r="F19" s="6">
+        <v>99.36</v>
+      </c>
+      <c r="G19" s="6">
+        <v>23.248999999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <v>108.11</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5.074E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.22228000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>499.67</v>
+      </c>
+      <c r="B20" s="6">
+        <v>49.776000000000003</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.251E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.95323000000000002</v>
+      </c>
+      <c r="E20" s="6">
+        <v>24.748999999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>100.02</v>
+      </c>
+      <c r="G20" s="6">
+        <v>24.864000000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>108.8</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5.3969999999999997E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.22194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>504.67</v>
+      </c>
+      <c r="B21" s="6">
+        <v>54.786999999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.261E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.86836999999999998</v>
+      </c>
+      <c r="E21" s="6">
+        <v>26.361000000000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>100.68</v>
+      </c>
+      <c r="G21" s="6">
+        <v>26.489000000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>109.48</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5.7180000000000002E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.22162000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>509.67</v>
+      </c>
+      <c r="B22" s="6">
+        <v>60.174999999999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.79235999999999995</v>
+      </c>
+      <c r="E22" s="6">
+        <v>27.983000000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <v>101.33</v>
+      </c>
+      <c r="G22" s="6">
+        <v>28.123999999999999</v>
+      </c>
+      <c r="H22" s="6">
+        <v>110.15</v>
+      </c>
+      <c r="I22" s="6">
+        <v>6.0380000000000003E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.22131000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>514.67000000000007</v>
+      </c>
+      <c r="B23" s="6">
+        <v>65.956999999999994</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="E23" s="6">
+        <v>29.614000000000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>101.98</v>
+      </c>
+      <c r="G23" s="6">
+        <v>29.77</v>
+      </c>
+      <c r="H23" s="6">
+        <v>110.82</v>
+      </c>
+      <c r="I23" s="6">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.22103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="B24" s="6">
+        <v>72.152000000000001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.66276999999999997</v>
+      </c>
+      <c r="E24" s="6">
+        <v>31.254000000000001</v>
+      </c>
+      <c r="F24" s="6">
+        <v>102.62</v>
+      </c>
+      <c r="G24" s="6">
+        <v>31.425999999999998</v>
+      </c>
+      <c r="H24" s="6">
+        <v>111.47</v>
+      </c>
+      <c r="I24" s="6">
+        <v>6.6739999999999994E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.22075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>524.67000000000007</v>
+      </c>
+      <c r="B25" s="6">
+        <v>78.78</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.3010000000000001E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.60743999999999998</v>
+      </c>
+      <c r="E25" s="6">
+        <v>32.904000000000003</v>
+      </c>
+      <c r="F25" s="6">
+        <v>103.25</v>
+      </c>
+      <c r="G25" s="6">
+        <v>33.094000000000001</v>
+      </c>
+      <c r="H25" s="6">
+        <v>112.11</v>
+      </c>
+      <c r="I25" s="6">
+        <v>6.991E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.22048999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>529.67000000000007</v>
+      </c>
+      <c r="B26" s="6">
+        <v>85.858000000000004</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1.311E-2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.55745999999999996</v>
+      </c>
+      <c r="E26" s="6">
+        <v>34.564999999999998</v>
+      </c>
+      <c r="F26" s="6">
+        <v>103.88</v>
+      </c>
+      <c r="G26" s="6">
+        <v>34.773000000000003</v>
+      </c>
+      <c r="H26" s="6">
+        <v>112.74</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7.306E-2</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.22023999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>534.67000000000007</v>
+      </c>
+      <c r="B27" s="6">
+        <v>93.408000000000001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.323E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.51222000000000001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>36.237000000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <v>104.5</v>
+      </c>
+      <c r="G27" s="6">
+        <v>36.465000000000003</v>
+      </c>
+      <c r="H27" s="6">
+        <v>113.35</v>
+      </c>
+      <c r="I27" s="6">
+        <v>7.621E-2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="B28" s="6">
+        <v>101.45</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.47119</v>
+      </c>
+      <c r="E28" s="6">
+        <v>37.92</v>
+      </c>
+      <c r="F28" s="6">
+        <v>105.11</v>
+      </c>
+      <c r="G28" s="6">
+        <v>38.17</v>
+      </c>
+      <c r="H28" s="6">
+        <v>113.96</v>
+      </c>
+      <c r="I28" s="6">
+        <v>7.9339999999999994E-2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.21976000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>544.67000000000007</v>
+      </c>
+      <c r="B29" s="6">
+        <v>110</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.346E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.43391000000000002</v>
+      </c>
+      <c r="E29" s="6">
+        <v>39.613999999999997</v>
+      </c>
+      <c r="F29" s="6">
+        <v>105.72</v>
+      </c>
+      <c r="G29" s="6">
+        <v>39.887999999999998</v>
+      </c>
+      <c r="H29" s="6">
+        <v>114.55</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8.2470000000000002E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.21953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>549.67000000000007</v>
+      </c>
+      <c r="B30" s="6">
+        <v>119.08</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.359E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.39996999999999999</v>
+      </c>
+      <c r="E30" s="6">
+        <v>41.320999999999998</v>
+      </c>
+      <c r="F30" s="6">
+        <v>106.31</v>
+      </c>
+      <c r="G30" s="6">
+        <v>41.62</v>
+      </c>
+      <c r="H30" s="6">
+        <v>115.12</v>
+      </c>
+      <c r="I30" s="6">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.21931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>554.67000000000007</v>
+      </c>
+      <c r="B31" s="6">
+        <v>128.72</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.372E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.36902000000000001</v>
+      </c>
+      <c r="E31" s="6">
+        <v>43.040999999999997</v>
+      </c>
+      <c r="F31" s="6">
+        <v>106.89</v>
+      </c>
+      <c r="G31" s="6">
+        <v>43.366999999999997</v>
+      </c>
+      <c r="H31" s="6">
+        <v>115.68</v>
+      </c>
+      <c r="I31" s="6">
+        <v>8.8719999999999993E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.21908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="B32" s="6">
+        <v>138.93</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.34073999999999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>44.774000000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <v>107.46</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45.13</v>
+      </c>
+      <c r="H32" s="6">
+        <v>116.22</v>
+      </c>
+      <c r="I32" s="6">
+        <v>9.1829999999999995E-2</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.21884999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>564.67000000000007</v>
+      </c>
+      <c r="B33" s="6">
+        <v>149.72999999999999</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.31485999999999997</v>
+      </c>
+      <c r="E33" s="6">
+        <v>46.521000000000001</v>
+      </c>
+      <c r="F33" s="6">
+        <v>108.02</v>
+      </c>
+      <c r="G33" s="6">
+        <v>46.908999999999999</v>
+      </c>
+      <c r="H33" s="6">
+        <v>116.75</v>
+      </c>
+      <c r="I33" s="6">
+        <v>9.4950000000000007E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.21862000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>569.67000000000007</v>
+      </c>
+      <c r="B34" s="6">
+        <v>161.16</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.4149999999999999E-2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.29113</v>
+      </c>
+      <c r="E34" s="6">
+        <v>48.283999999999999</v>
+      </c>
+      <c r="F34" s="6">
+        <v>108.57</v>
+      </c>
+      <c r="G34" s="6">
+        <v>48.706000000000003</v>
+      </c>
+      <c r="H34" s="6">
+        <v>117.25</v>
+      </c>
+      <c r="I34" s="6">
+        <v>9.8059999999999994E-2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.21837999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>574.67000000000007</v>
+      </c>
+      <c r="B35" s="6">
+        <v>173.23</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1.43E-2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.26933000000000001</v>
+      </c>
+      <c r="E35" s="6">
+        <v>50.063000000000002</v>
+      </c>
+      <c r="F35" s="6">
+        <v>109.1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>50.521000000000001</v>
+      </c>
+      <c r="H35" s="6">
+        <v>117.73</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.10118000000000001</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.21812999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="B36" s="6">
+        <v>185.96</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.4460000000000001E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.24928</v>
+      </c>
+      <c r="E36" s="6">
+        <v>51.857999999999997</v>
+      </c>
+      <c r="F36" s="6">
+        <v>109.61</v>
+      </c>
+      <c r="G36" s="6">
+        <v>52.356000000000002</v>
+      </c>
+      <c r="H36" s="6">
+        <v>118.19</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.1043</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.21786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>589.67000000000007</v>
+      </c>
+      <c r="B37" s="6">
+        <v>213.53</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1.482E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.21373</v>
+      </c>
+      <c r="E37" s="6">
+        <v>55.505000000000003</v>
+      </c>
+      <c r="F37" s="6">
+        <v>110.58</v>
+      </c>
+      <c r="G37" s="6">
+        <v>56.091000000000001</v>
+      </c>
+      <c r="H37" s="6">
+        <v>119.03</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.11056000000000001</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.21728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="B38" s="6">
+        <v>244.06</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1.5219999999999999E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.18331</v>
+      </c>
+      <c r="E38" s="6">
+        <v>59.237000000000002</v>
+      </c>
+      <c r="F38" s="6">
+        <v>111.46</v>
+      </c>
+      <c r="G38" s="6">
+        <v>59.924999999999997</v>
+      </c>
+      <c r="H38" s="6">
+        <v>119.74</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.11686000000000001</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.21659999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>609.67000000000007</v>
+      </c>
+      <c r="B39" s="6">
+        <v>277.79000000000002</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.15706999999999999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>63.07</v>
+      </c>
+      <c r="F39" s="6">
+        <v>112.22</v>
+      </c>
+      <c r="G39" s="6">
+        <v>63.875</v>
+      </c>
+      <c r="H39" s="6">
+        <v>120.29</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.12324</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.21576999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="B40" s="6">
+        <v>314.94</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1.619E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.13422999999999999</v>
+      </c>
+      <c r="E40" s="6">
+        <v>67.022000000000006</v>
+      </c>
+      <c r="F40" s="6">
+        <v>112.83</v>
+      </c>
+      <c r="G40" s="6">
+        <v>67.965000000000003</v>
+      </c>
+      <c r="H40" s="6">
+        <v>120.66</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.12970999999999999</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.21473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>629.67000000000007</v>
+      </c>
+      <c r="B41" s="6">
+        <v>355.8</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1.6820000000000002E-2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.11413</v>
+      </c>
+      <c r="E41" s="6">
+        <v>71.138999999999996</v>
+      </c>
+      <c r="F41" s="6">
+        <v>113.24</v>
+      </c>
+      <c r="G41" s="6">
+        <v>72.245999999999995</v>
+      </c>
+      <c r="H41" s="6">
+        <v>120.75</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.13636999999999999</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.21340000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="B42" s="6">
+        <v>400.66</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1.7590000000000001E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>9.6189999999999998E-2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>75.463999999999999</v>
+      </c>
+      <c r="F42" s="6">
+        <v>113.36</v>
+      </c>
+      <c r="G42" s="6">
+        <v>76.768000000000001</v>
+      </c>
+      <c r="H42" s="6">
+        <v>120.49</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.14327000000000001</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.21160999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>649.67000000000007</v>
+      </c>
+      <c r="B43" s="6">
+        <v>449.9</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1.8610000000000002E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>7.9820000000000002E-2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>80.093000000000004</v>
+      </c>
+      <c r="F43" s="6">
+        <v>113.02</v>
+      </c>
+      <c r="G43" s="6">
+        <v>81.641999999999996</v>
+      </c>
+      <c r="H43" s="6">
+        <v>119.67</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.15057000000000001</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.20909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="B44" s="6">
+        <v>504</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2.01E-2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>6.4409999999999995E-2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>85.296999999999997</v>
+      </c>
+      <c r="F44" s="6">
+        <v>111.93</v>
+      </c>
+      <c r="G44" s="6">
+        <v>87.171999999999997</v>
+      </c>
+      <c r="H44" s="6">
+        <v>117.93</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.15872</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.20533999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>669.67000000000007</v>
+      </c>
+      <c r="B45" s="6">
+        <v>563.76</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.3089999999999999E-2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4.7219999999999998E-2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>91.992999999999995</v>
+      </c>
+      <c r="F45" s="6">
+        <v>108.49</v>
+      </c>
+      <c r="G45" s="6">
+        <v>94.402000000000001</v>
+      </c>
+      <c r="H45" s="6">
+        <v>113.42</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.16924</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.19763</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF65CA20-8244-48DF-BB82-BD2DEE279DEF}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J37"/>
@@ -2590,38 +4138,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3756,7 +5304,1348 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC92B6E-80B3-4F52-9819-24933628468E}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>406.58000000000004</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.1129999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-3.9140000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <v>87.37</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-3.903</v>
+      </c>
+      <c r="H4" s="6">
+        <v>95.12</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-9.4400000000000005E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.23408999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>430.15000000000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.1429999999999999E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.3739999999999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>90.59</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.153</v>
+      </c>
+      <c r="H5" s="6">
+        <v>98.69</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7.4099999999999999E-3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.22949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6">
+        <v>445.52000000000004</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.1639999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.9882</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7.7960000000000003</v>
+      </c>
+      <c r="F6" s="6">
+        <v>92.7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7.8280000000000003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.806E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.22717000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>457.24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.1809999999999999E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.2780999999999998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11.393000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>94.31</v>
+      </c>
+      <c r="G7" s="6">
+        <v>11.436</v>
+      </c>
+      <c r="H7" s="6">
+        <v>102.74</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.6030000000000001E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>466.84000000000003</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.196E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.8442000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14.367000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>95.62</v>
+      </c>
+      <c r="G8" s="6">
+        <v>14.422000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>104.15</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.2469999999999999E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.22464999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6">
+        <v>475.04</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.209E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.5506</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16.928999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <v>96.73</v>
+      </c>
+      <c r="G9" s="6">
+        <v>16.995999999999999</v>
+      </c>
+      <c r="H9" s="6">
+        <v>105.34</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.7920000000000002E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.22386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6">
+        <v>482.24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.221E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.3382000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>19.195</v>
+      </c>
+      <c r="F10" s="6">
+        <v>97.7</v>
+      </c>
+      <c r="G10" s="6">
+        <v>19.274000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>106.37</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4.265E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.22323999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
+        <v>488.68</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.1773</v>
+      </c>
+      <c r="E11" s="6">
+        <v>21.236000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>98.56</v>
+      </c>
+      <c r="G11" s="6">
+        <v>21.327000000000002</v>
+      </c>
+      <c r="H11" s="6">
+        <v>107.28</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4.6859999999999999E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.22272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6">
+        <v>494.53000000000003</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.242E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>23.100999999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>99.34</v>
+      </c>
+      <c r="G12" s="6">
+        <v>23.204999999999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>108.09</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.22228999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6">
+        <v>499.90000000000003</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.252E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.94908999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>24.824000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100.05</v>
+      </c>
+      <c r="G13" s="6">
+        <v>24.939</v>
+      </c>
+      <c r="H13" s="6">
+        <v>108.83</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5.4120000000000001E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.22192000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>55</v>
+      </c>
+      <c r="B14" s="6">
+        <v>504.87</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.261E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.86509000000000003</v>
+      </c>
+      <c r="E14" s="6">
+        <v>26.428000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>100.7</v>
+      </c>
+      <c r="G14" s="6">
+        <v>26.556000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>109.51</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5.7320000000000003E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.22159999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6">
+        <v>509.51</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.79461999999999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>27.931999999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>101.31</v>
+      </c>
+      <c r="G15" s="6">
+        <v>28.073</v>
+      </c>
+      <c r="H15" s="6">
+        <v>110.13</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6.028E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.22131999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6">
+        <v>513.87</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.278E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.73462000000000005</v>
+      </c>
+      <c r="E16" s="6">
+        <v>29.350999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>101.87</v>
+      </c>
+      <c r="G16" s="6">
+        <v>29.504999999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <v>110.71</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6.3060000000000005E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.22106999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6">
+        <v>517.97</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.2869999999999999E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30.696000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <v>102.4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>30.861999999999998</v>
+      </c>
+      <c r="H17" s="6">
+        <v>111.25</v>
+      </c>
+      <c r="I17" s="6">
+        <v>6.5670000000000006E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.22084000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>75</v>
+      </c>
+      <c r="B18" s="6">
+        <v>521.86</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.295E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.63783999999999996</v>
+      </c>
+      <c r="E18" s="6">
+        <v>31.975000000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>102.9</v>
+      </c>
+      <c r="G18" s="6">
+        <v>32.155000000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>111.75</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6.8129999999999996E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.22064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>80</v>
+      </c>
+      <c r="B19" s="6">
+        <v>525.56000000000006</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.303E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.59821999999999997</v>
+      </c>
+      <c r="E19" s="6">
+        <v>33.198</v>
+      </c>
+      <c r="F19" s="6">
+        <v>103.36</v>
+      </c>
+      <c r="G19" s="6">
+        <v>33.390999999999998</v>
+      </c>
+      <c r="H19" s="6">
+        <v>112.22</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7.0470000000000005E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.22045000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>85</v>
+      </c>
+      <c r="B20" s="6">
+        <v>529.08000000000004</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.56308999999999998</v>
+      </c>
+      <c r="E20" s="6">
+        <v>34.369</v>
+      </c>
+      <c r="F20" s="6">
+        <v>103.81</v>
+      </c>
+      <c r="G20" s="6">
+        <v>34.575000000000003</v>
+      </c>
+      <c r="H20" s="6">
+        <v>112.66</v>
+      </c>
+      <c r="I20" s="6">
+        <v>7.2690000000000005E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.22026999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>90</v>
+      </c>
+      <c r="B21" s="6">
+        <v>532.45000000000005</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.3180000000000001E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.53173000000000004</v>
+      </c>
+      <c r="E21" s="6">
+        <v>35.494</v>
+      </c>
+      <c r="F21" s="6">
+        <v>104.23</v>
+      </c>
+      <c r="G21" s="6">
+        <v>35.713000000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>113.08</v>
+      </c>
+      <c r="I21" s="6">
+        <v>7.4810000000000001E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.22011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6">
+        <v>535.69000000000005</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.325E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.50356000000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>36.576999999999998</v>
+      </c>
+      <c r="F22" s="6">
+        <v>104.63</v>
+      </c>
+      <c r="G22" s="6">
+        <v>36.81</v>
+      </c>
+      <c r="H22" s="6">
+        <v>113.48</v>
+      </c>
+      <c r="I22" s="6">
+        <v>7.6840000000000006E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.21995000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6">
+        <v>538.79</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.332E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.47810999999999998</v>
+      </c>
+      <c r="E23" s="6">
+        <v>37.622999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <v>105.01</v>
+      </c>
+      <c r="G23" s="6">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="H23" s="6">
+        <v>113.85</v>
+      </c>
+      <c r="I23" s="6">
+        <v>7.8789999999999999E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.21981000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>110</v>
+      </c>
+      <c r="B24" s="6">
+        <v>544.67000000000007</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.346E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="E24" s="6">
+        <v>39.613999999999997</v>
+      </c>
+      <c r="F24" s="6">
+        <v>105.72</v>
+      </c>
+      <c r="G24" s="6">
+        <v>39.887999999999998</v>
+      </c>
+      <c r="H24" s="6">
+        <v>114.55</v>
+      </c>
+      <c r="I24" s="6">
+        <v>8.2470000000000002E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.21953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>120</v>
+      </c>
+      <c r="B25" s="6">
+        <v>550.16</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.39681</v>
+      </c>
+      <c r="E25" s="6">
+        <v>41.488999999999997</v>
+      </c>
+      <c r="F25" s="6">
+        <v>106.37</v>
+      </c>
+      <c r="G25" s="6">
+        <v>41.790999999999997</v>
+      </c>
+      <c r="H25" s="6">
+        <v>115.18</v>
+      </c>
+      <c r="I25" s="6">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.21928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6">
+        <v>555.31000000000006</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1.374E-2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.36523</v>
+      </c>
+      <c r="E26" s="6">
+        <v>43.262999999999998</v>
+      </c>
+      <c r="F26" s="6">
+        <v>106.97</v>
+      </c>
+      <c r="G26" s="6">
+        <v>43.594000000000001</v>
+      </c>
+      <c r="H26" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="I26" s="6">
+        <v>8.9120000000000005E-2</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.21904999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>140</v>
+      </c>
+      <c r="B27" s="6">
+        <v>560.18000000000006</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.387E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E27" s="6">
+        <v>44.951000000000001</v>
+      </c>
+      <c r="F27" s="6">
+        <v>107.52</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45.311</v>
+      </c>
+      <c r="H27" s="6">
+        <v>116.28</v>
+      </c>
+      <c r="I27" s="6">
+        <v>9.2149999999999996E-2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.21883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>150</v>
+      </c>
+      <c r="B28" s="6">
+        <v>564.79</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.31425999999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <v>46.563000000000002</v>
+      </c>
+      <c r="F28" s="6">
+        <v>108.04</v>
+      </c>
+      <c r="G28" s="6">
+        <v>46.951999999999998</v>
+      </c>
+      <c r="H28" s="6">
+        <v>116.76</v>
+      </c>
+      <c r="I28" s="6">
+        <v>9.5019999999999993E-2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.21861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>160</v>
+      </c>
+      <c r="B29" s="6">
+        <v>569.17000000000007</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.413E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.29338999999999998</v>
+      </c>
+      <c r="E29" s="6">
+        <v>48.109000000000002</v>
+      </c>
+      <c r="F29" s="6">
+        <v>108.51</v>
+      </c>
+      <c r="G29" s="6">
+        <v>48.527000000000001</v>
+      </c>
+      <c r="H29" s="6">
+        <v>117.2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>9.776E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.21840000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>170</v>
+      </c>
+      <c r="B30" s="6">
+        <v>573.36</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.426E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.27487</v>
+      </c>
+      <c r="E30" s="6">
+        <v>49.594999999999999</v>
+      </c>
+      <c r="F30" s="6">
+        <v>108.96</v>
+      </c>
+      <c r="G30" s="6">
+        <v>50.042999999999999</v>
+      </c>
+      <c r="H30" s="6">
+        <v>117.61</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.10036</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.21819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>180</v>
+      </c>
+      <c r="B31" s="6">
+        <v>577.36</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.439E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.25833</v>
+      </c>
+      <c r="E31" s="6">
+        <v>51.027000000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>109.38</v>
+      </c>
+      <c r="G31" s="6">
+        <v>51.506999999999998</v>
+      </c>
+      <c r="H31" s="6">
+        <v>117.98</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.10285999999999999</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.21798999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>190</v>
+      </c>
+      <c r="B32" s="6">
+        <v>581.20000000000005</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.452E-2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.24346000000000001</v>
+      </c>
+      <c r="E32" s="6">
+        <v>52.411999999999999</v>
+      </c>
+      <c r="F32" s="6">
+        <v>109.76</v>
+      </c>
+      <c r="G32" s="6">
+        <v>52.921999999999997</v>
+      </c>
+      <c r="H32" s="6">
+        <v>118.32</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.10526000000000001</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.21778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>200</v>
+      </c>
+      <c r="B33" s="6">
+        <v>584.89</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.464E-2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.23000999999999999</v>
+      </c>
+      <c r="E33" s="6">
+        <v>53.753</v>
+      </c>
+      <c r="F33" s="6">
+        <v>110.13</v>
+      </c>
+      <c r="G33" s="6">
+        <v>54.295000000000002</v>
+      </c>
+      <c r="H33" s="6">
+        <v>118.64</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.10757</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.21757000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>220</v>
+      </c>
+      <c r="B34" s="6">
+        <v>591.88</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.20662</v>
+      </c>
+      <c r="E34" s="6">
+        <v>56.320999999999998</v>
+      </c>
+      <c r="F34" s="6">
+        <v>110.78</v>
+      </c>
+      <c r="G34" s="6">
+        <v>56.927</v>
+      </c>
+      <c r="H34" s="6">
+        <v>119.19</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.11194999999999999</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.21714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>240</v>
+      </c>
+      <c r="B35" s="6">
+        <v>598.4</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1.516E-2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.18694</v>
+      </c>
+      <c r="E35" s="6">
+        <v>58.756999999999998</v>
+      </c>
+      <c r="F35" s="6">
+        <v>111.35</v>
+      </c>
+      <c r="G35" s="6">
+        <v>59.43</v>
+      </c>
+      <c r="H35" s="6">
+        <v>119.65</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.11606</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.21668999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>260</v>
+      </c>
+      <c r="B36" s="6">
+        <v>604.52</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.5429999999999999E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.17011999999999999</v>
+      </c>
+      <c r="E36" s="6">
+        <v>61.082000000000001</v>
+      </c>
+      <c r="F36" s="6">
+        <v>111.84</v>
+      </c>
+      <c r="G36" s="6">
+        <v>61.823999999999998</v>
+      </c>
+      <c r="H36" s="6">
+        <v>120.03</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.11994</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.21622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>280</v>
+      </c>
+      <c r="B37" s="6">
+        <v>610.29</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.15554999999999999</v>
+      </c>
+      <c r="E37" s="6">
+        <v>63.313000000000002</v>
+      </c>
+      <c r="F37" s="6">
+        <v>112.26</v>
+      </c>
+      <c r="G37" s="6">
+        <v>64.126000000000005</v>
+      </c>
+      <c r="H37" s="6">
+        <v>120.32</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.12364</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.21571000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>300</v>
+      </c>
+      <c r="B38" s="6">
+        <v>615.76</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1.5980000000000001E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.14279</v>
+      </c>
+      <c r="E38" s="6">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="F38" s="6">
+        <v>112.61</v>
+      </c>
+      <c r="G38" s="6">
+        <v>66.346999999999994</v>
+      </c>
+      <c r="H38" s="6">
+        <v>120.54</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.12717000000000001</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.21517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>350</v>
+      </c>
+      <c r="B39" s="6">
+        <v>628.30999999999995</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.6719999999999999E-2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.11673</v>
+      </c>
+      <c r="E39" s="6">
+        <v>70.566999999999993</v>
+      </c>
+      <c r="F39" s="6">
+        <v>113.2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>71.650999999999996</v>
+      </c>
+      <c r="H39" s="6">
+        <v>120.76</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.13544999999999999</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.21360000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>400</v>
+      </c>
+      <c r="B40" s="6">
+        <v>639.53</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1.7579999999999998E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>9.6430000000000002E-2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>75.400999999999996</v>
+      </c>
+      <c r="F40" s="6">
+        <v>113.36</v>
+      </c>
+      <c r="G40" s="6">
+        <v>76.701999999999998</v>
+      </c>
+      <c r="H40" s="6">
+        <v>120.5</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.14316999999999999</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.21163999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>450</v>
+      </c>
+      <c r="B41" s="6">
+        <v>649.69000000000005</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7.979E-2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>80.111999999999995</v>
+      </c>
+      <c r="F41" s="6">
+        <v>113.02</v>
+      </c>
+      <c r="G41" s="6">
+        <v>81.662000000000006</v>
+      </c>
+      <c r="H41" s="6">
+        <v>119.67</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.20909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>500</v>
+      </c>
+      <c r="B42" s="6">
+        <v>658.96</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1.9970000000000002E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>6.5329999999999999E-2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>84.9</v>
+      </c>
+      <c r="F42" s="6">
+        <v>112</v>
+      </c>
+      <c r="G42" s="6">
+        <v>86.748000000000005</v>
+      </c>
+      <c r="H42" s="6">
+        <v>118.04</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.20558000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A904A3-CA9F-497D-8E36-5757415ED24B}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F265"/>
@@ -3768,14 +6657,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9055,6 +11944,4963 @@
       </c>
       <c r="F265" s="2">
         <v>1.2677</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F0979-DF7B-477C-92FA-F7CF67AA9F7D}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:F247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>430.15000000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.3739999999999997</v>
+      </c>
+      <c r="D3" s="6">
+        <v>90.59</v>
+      </c>
+      <c r="E3" s="6">
+        <v>98.69</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.22949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>439.67</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.4855999999999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>92.14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100.44</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.23351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>459.67</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.7134999999999998</v>
+      </c>
+      <c r="D5" s="6">
+        <v>95.42</v>
+      </c>
+      <c r="E5" s="6">
+        <v>104.14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.24174999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>479.67</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.9379999999999997</v>
+      </c>
+      <c r="D6" s="6">
+        <v>98.77</v>
+      </c>
+      <c r="E6" s="6">
+        <v>107.91</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.24978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>499.67</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>102.21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>111.76</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.25763000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5.3802000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>105.73</v>
+      </c>
+      <c r="E8" s="6">
+        <v>115.68</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.26533000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.5989000000000004</v>
+      </c>
+      <c r="D9" s="6">
+        <v>109.33</v>
+      </c>
+      <c r="E9" s="6">
+        <v>119.69</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.27289999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.8164999999999996</v>
+      </c>
+      <c r="D10" s="6">
+        <v>113.02</v>
+      </c>
+      <c r="E10" s="6">
+        <v>123.78</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.28034999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6.0331000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>116.8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>127.96</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.28767999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="D12" s="6">
+        <v>120.66</v>
+      </c>
+      <c r="E12" s="6">
+        <v>132.22999999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.29492000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6.4641999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>124.62</v>
+      </c>
+      <c r="E13" s="6">
+        <v>136.58000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.30204999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6.6788999999999996</v>
+      </c>
+      <c r="D14" s="6">
+        <v>128.66</v>
+      </c>
+      <c r="E14" s="6">
+        <v>141.01</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.30909999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="D15" s="6">
+        <v>132.78</v>
+      </c>
+      <c r="E15" s="6">
+        <v>145.54</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.31606000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7.1067999999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>136.99</v>
+      </c>
+      <c r="E16" s="6">
+        <v>150.13999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.32292999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>445.52000000000004</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.9882</v>
+      </c>
+      <c r="D17" s="6">
+        <v>92.7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>101</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.22717000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>459.67</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.1000999999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>95.08</v>
+      </c>
+      <c r="E18" s="6">
+        <v>103.69</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.23311999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>479.67</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3.2551000000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>98.49</v>
+      </c>
+      <c r="E19" s="6">
+        <v>107.52</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.24129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>499.67</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.4074</v>
+      </c>
+      <c r="D20" s="6">
+        <v>101.96</v>
+      </c>
+      <c r="E20" s="6">
+        <v>111.42</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.24923999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.5577000000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>105.51</v>
+      </c>
+      <c r="E21" s="6">
+        <v>115.38</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.25702000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3.7063999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>109.14</v>
+      </c>
+      <c r="E22" s="6">
+        <v>119.42</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.26465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>112.85</v>
+      </c>
+      <c r="E23" s="6">
+        <v>123.54</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.27213999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4.0006000000000004</v>
+      </c>
+      <c r="D24" s="6">
+        <v>116.64</v>
+      </c>
+      <c r="E24" s="6">
+        <v>127.75</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.27951999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4.1463999999999999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>120.52</v>
+      </c>
+      <c r="E25" s="6">
+        <v>132.03</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.28677999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4.2915000000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>124.49</v>
+      </c>
+      <c r="E26" s="6">
+        <v>136.4</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.29394999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4.4360999999999997</v>
+      </c>
+      <c r="D27" s="6">
+        <v>128.53</v>
+      </c>
+      <c r="E27" s="6">
+        <v>140.85</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.30102000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4.5801999999999996</v>
+      </c>
+      <c r="D28" s="6">
+        <v>132.66999999999999</v>
+      </c>
+      <c r="E28" s="6">
+        <v>145.38</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>15</v>
+      </c>
+      <c r="B29" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4.7239000000000004</v>
+      </c>
+      <c r="D29" s="6">
+        <v>136.88999999999999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>150</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.31489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6">
+        <v>457.24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2.2780999999999998</v>
+      </c>
+      <c r="D30" s="6">
+        <v>94.31</v>
+      </c>
+      <c r="E30" s="6">
+        <v>102.74</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6">
+        <v>459.67</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2.2921999999999998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>94.73</v>
+      </c>
+      <c r="E31" s="6">
+        <v>103.21</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.22672999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6">
+        <v>479.67</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>98.19</v>
+      </c>
+      <c r="E32" s="6">
+        <v>107.12</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.23505999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6">
+        <v>499.67</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2.5306000000000002</v>
+      </c>
+      <c r="D33" s="6">
+        <v>101.71</v>
+      </c>
+      <c r="E33" s="6">
+        <v>111.07</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.24313000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>20</v>
+      </c>
+      <c r="B34" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2.6461000000000001</v>
+      </c>
+      <c r="D34" s="6">
+        <v>105.29</v>
+      </c>
+      <c r="E34" s="6">
+        <v>115.08</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.25098999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>20</v>
+      </c>
+      <c r="B35" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="D35" s="6">
+        <v>108.94</v>
+      </c>
+      <c r="E35" s="6">
+        <v>119.15</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.25868000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2.8725999999999998</v>
+      </c>
+      <c r="D36" s="6">
+        <v>112.67</v>
+      </c>
+      <c r="E36" s="6">
+        <v>123.3</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.26623000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.9842</v>
+      </c>
+      <c r="D37" s="6">
+        <v>116.48</v>
+      </c>
+      <c r="E37" s="6">
+        <v>127.53</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.27363999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>20</v>
+      </c>
+      <c r="B38" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D38" s="6">
+        <v>120.38</v>
+      </c>
+      <c r="E38" s="6">
+        <v>131.83000000000001</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.28094000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>20</v>
+      </c>
+      <c r="B39" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3.2050999999999998</v>
+      </c>
+      <c r="D39" s="6">
+        <v>124.35</v>
+      </c>
+      <c r="E39" s="6">
+        <v>136.22</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.28814000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>20</v>
+      </c>
+      <c r="B40" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3.3146</v>
+      </c>
+      <c r="D40" s="6">
+        <v>128.41</v>
+      </c>
+      <c r="E40" s="6">
+        <v>140.68</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.29522999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>20</v>
+      </c>
+      <c r="B41" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3.4237000000000002</v>
+      </c>
+      <c r="D41" s="6">
+        <v>132.56</v>
+      </c>
+      <c r="E41" s="6">
+        <v>145.22999999999999</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.30223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>20</v>
+      </c>
+      <c r="B42" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3.5324</v>
+      </c>
+      <c r="D42" s="6">
+        <v>136.78</v>
+      </c>
+      <c r="E42" s="6">
+        <v>149.86000000000001</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.30914000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>30</v>
+      </c>
+      <c r="B43" s="6">
+        <v>475.04</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1.5506</v>
+      </c>
+      <c r="D43" s="6">
+        <v>96.73</v>
+      </c>
+      <c r="E43" s="6">
+        <v>105.34</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.22386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>30</v>
+      </c>
+      <c r="B44" s="6">
+        <v>479.67</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1.5690999999999999</v>
+      </c>
+      <c r="D44" s="6">
+        <v>97.56</v>
+      </c>
+      <c r="E44" s="6">
+        <v>106.27</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.22583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6">
+        <v>499.67</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1.6528</v>
+      </c>
+      <c r="D45" s="6">
+        <v>101.18</v>
+      </c>
+      <c r="E45" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.23416000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>30</v>
+      </c>
+      <c r="B46" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1.7338</v>
+      </c>
+      <c r="D46" s="6">
+        <v>104.83</v>
+      </c>
+      <c r="E46" s="6">
+        <v>114.45</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.2422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>30</v>
+      </c>
+      <c r="B47" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="D47" s="6">
+        <v>108.54</v>
+      </c>
+      <c r="E47" s="6">
+        <v>118.6</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.25002999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1.8908</v>
+      </c>
+      <c r="D48" s="6">
+        <v>112.31</v>
+      </c>
+      <c r="E48" s="6">
+        <v>122.81</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.25768999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1.9675</v>
+      </c>
+      <c r="D49" s="6">
+        <v>116.16</v>
+      </c>
+      <c r="E49" s="6">
+        <v>127.08</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.26518999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>30</v>
+      </c>
+      <c r="B50" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2.0434000000000001</v>
+      </c>
+      <c r="D50" s="6">
+        <v>120.08</v>
+      </c>
+      <c r="E50" s="6">
+        <v>131.43</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.27256000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>30</v>
+      </c>
+      <c r="B51" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2.1185</v>
+      </c>
+      <c r="D51" s="6">
+        <v>124.09</v>
+      </c>
+      <c r="E51" s="6">
+        <v>135.85</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.27981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>30</v>
+      </c>
+      <c r="B52" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2.1930999999999998</v>
+      </c>
+      <c r="D52" s="6">
+        <v>128.16999999999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>140.34</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.28694999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>30</v>
+      </c>
+      <c r="B53" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2.2671000000000001</v>
+      </c>
+      <c r="D53" s="6">
+        <v>132.33000000000001</v>
+      </c>
+      <c r="E53" s="6">
+        <v>144.91999999999999</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.29398999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>30</v>
+      </c>
+      <c r="B54" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2.3408000000000002</v>
+      </c>
+      <c r="D54" s="6">
+        <v>136.58000000000001</v>
+      </c>
+      <c r="E54" s="6">
+        <v>149.57</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.30093999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>30</v>
+      </c>
+      <c r="B55" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2.4140999999999999</v>
+      </c>
+      <c r="D55" s="6">
+        <v>140.9</v>
+      </c>
+      <c r="E55" s="6">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.30780000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>30</v>
+      </c>
+      <c r="B56" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2.4870999999999999</v>
+      </c>
+      <c r="D56" s="6">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="E56" s="6">
+        <v>159.11000000000001</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.31458000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>30</v>
+      </c>
+      <c r="B57" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2.5598000000000001</v>
+      </c>
+      <c r="D57" s="6">
+        <v>149.79</v>
+      </c>
+      <c r="E57" s="6">
+        <v>164</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.32128000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>40</v>
+      </c>
+      <c r="B58" s="6">
+        <v>488.68</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1.1773</v>
+      </c>
+      <c r="D58" s="6">
+        <v>98.56</v>
+      </c>
+      <c r="E58" s="6">
+        <v>107.28</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.22272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>40</v>
+      </c>
+      <c r="B59" s="6">
+        <v>499.67</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1.2125999999999999</v>
+      </c>
+      <c r="D59" s="6">
+        <v>100.61</v>
+      </c>
+      <c r="E59" s="6">
+        <v>109.59</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.22739999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>40</v>
+      </c>
+      <c r="B60" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1.2767999999999999</v>
+      </c>
+      <c r="D60" s="6">
+        <v>104.35</v>
+      </c>
+      <c r="E60" s="6">
+        <v>113.8</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.23566999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>40</v>
+      </c>
+      <c r="B61" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1.3389</v>
+      </c>
+      <c r="D61" s="6">
+        <v>108.12</v>
+      </c>
+      <c r="E61" s="6">
+        <v>118.03</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.24365000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>40</v>
+      </c>
+      <c r="B62" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1.3995</v>
+      </c>
+      <c r="D62" s="6">
+        <v>111.94</v>
+      </c>
+      <c r="E62" s="6">
+        <v>122.3</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.25141999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>40</v>
+      </c>
+      <c r="B63" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1.4588000000000001</v>
+      </c>
+      <c r="D63" s="6">
+        <v>115.83</v>
+      </c>
+      <c r="E63" s="6">
+        <v>126.63</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.25901999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>40</v>
+      </c>
+      <c r="B64" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1.5173000000000001</v>
+      </c>
+      <c r="D64" s="6">
+        <v>119.79</v>
+      </c>
+      <c r="E64" s="6">
+        <v>131.02000000000001</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.26645999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>40</v>
+      </c>
+      <c r="B65" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1.575</v>
+      </c>
+      <c r="D65" s="6">
+        <v>123.82</v>
+      </c>
+      <c r="E65" s="6">
+        <v>135.47</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.27377000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>40</v>
+      </c>
+      <c r="B66" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1.6321000000000001</v>
+      </c>
+      <c r="D66" s="6">
+        <v>127.92</v>
+      </c>
+      <c r="E66" s="6">
+        <v>140</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.28095999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>40</v>
+      </c>
+      <c r="B67" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1.6887000000000001</v>
+      </c>
+      <c r="D67" s="6">
+        <v>132.1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>144.6</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.28804999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>40</v>
+      </c>
+      <c r="B68" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1.7448999999999999</v>
+      </c>
+      <c r="D68" s="6">
+        <v>136.37</v>
+      </c>
+      <c r="E68" s="6">
+        <v>149.28</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0.29503000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>40</v>
+      </c>
+      <c r="B69" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1.8007</v>
+      </c>
+      <c r="D69" s="6">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="E69" s="6">
+        <v>154.03</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0.30192000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>40</v>
+      </c>
+      <c r="B70" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1.8562000000000001</v>
+      </c>
+      <c r="D70" s="6">
+        <v>145.12</v>
+      </c>
+      <c r="E70" s="6">
+        <v>158.86000000000001</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.30873</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>40</v>
+      </c>
+      <c r="B71" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1.9114</v>
+      </c>
+      <c r="D71" s="6">
+        <v>149.62</v>
+      </c>
+      <c r="E71" s="6">
+        <v>163.77000000000001</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.31545000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>50</v>
+      </c>
+      <c r="B72" s="6">
+        <v>499.90000000000003</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="D72" s="6">
+        <v>100.05</v>
+      </c>
+      <c r="E72" s="6">
+        <v>108.83</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.22192000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>50</v>
+      </c>
+      <c r="B73" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1.0019</v>
+      </c>
+      <c r="D73" s="6">
+        <v>103.85</v>
+      </c>
+      <c r="E73" s="6">
+        <v>113.12</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.23033000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>50</v>
+      </c>
+      <c r="B74" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1.054</v>
+      </c>
+      <c r="D74" s="6">
+        <v>107.69</v>
+      </c>
+      <c r="E74" s="6">
+        <v>117.44</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.23849000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>50</v>
+      </c>
+      <c r="B75" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1.1043000000000001</v>
+      </c>
+      <c r="D75" s="6">
+        <v>111.56</v>
+      </c>
+      <c r="E75" s="6">
+        <v>121.78</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.24639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>50</v>
+      </c>
+      <c r="B76" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1.1534</v>
+      </c>
+      <c r="D76" s="6">
+        <v>115.49</v>
+      </c>
+      <c r="E76" s="6">
+        <v>126.16</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.25407999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>50</v>
+      </c>
+      <c r="B77" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1.2015</v>
+      </c>
+      <c r="D77" s="6">
+        <v>119.48</v>
+      </c>
+      <c r="E77" s="6">
+        <v>130.6</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.2616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>50</v>
+      </c>
+      <c r="B78" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1.2487999999999999</v>
+      </c>
+      <c r="D78" s="6">
+        <v>123.54</v>
+      </c>
+      <c r="E78" s="6">
+        <v>135.09</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0.26898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>50</v>
+      </c>
+      <c r="B79" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1.2955000000000001</v>
+      </c>
+      <c r="D79" s="6">
+        <v>127.67</v>
+      </c>
+      <c r="E79" s="6">
+        <v>139.66</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.27622000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>50</v>
+      </c>
+      <c r="B80" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1.3415999999999999</v>
+      </c>
+      <c r="D80" s="6">
+        <v>131.87</v>
+      </c>
+      <c r="E80" s="6">
+        <v>144.29</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0.28334999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>50</v>
+      </c>
+      <c r="B81" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1.3873</v>
+      </c>
+      <c r="D81" s="6">
+        <v>136.15</v>
+      </c>
+      <c r="E81" s="6">
+        <v>148.99</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0.29037000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>50</v>
+      </c>
+      <c r="B82" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1.4326000000000001</v>
+      </c>
+      <c r="D82" s="6">
+        <v>140.51</v>
+      </c>
+      <c r="E82" s="6">
+        <v>153.76</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.29730000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>50</v>
+      </c>
+      <c r="B83" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1.4776</v>
+      </c>
+      <c r="D83" s="6">
+        <v>144.94</v>
+      </c>
+      <c r="E83" s="6">
+        <v>158.61000000000001</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.30413000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>50</v>
+      </c>
+      <c r="B84" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1.5223</v>
+      </c>
+      <c r="D84" s="6">
+        <v>149.44999999999999</v>
+      </c>
+      <c r="E84" s="6">
+        <v>163.53</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0.31086999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>60</v>
+      </c>
+      <c r="B85" s="6">
+        <v>509.51</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="D85" s="6">
+        <v>101.31</v>
+      </c>
+      <c r="E85" s="6">
+        <v>110.13</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.22131999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>60</v>
+      </c>
+      <c r="B86" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="D86" s="6">
+        <v>103.31</v>
+      </c>
+      <c r="E86" s="6">
+        <v>112.39</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.22572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>60</v>
+      </c>
+      <c r="B87" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="D87" s="6">
+        <v>107.24</v>
+      </c>
+      <c r="E87" s="6">
+        <v>116.82</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.23408000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>60</v>
+      </c>
+      <c r="B88" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="D88" s="6">
+        <v>111.17</v>
+      </c>
+      <c r="E88" s="6">
+        <v>121.24</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.24212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>60</v>
+      </c>
+      <c r="B89" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="D89" s="6">
+        <v>115.14</v>
+      </c>
+      <c r="E89" s="6">
+        <v>125.69</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.24992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>60</v>
+      </c>
+      <c r="B90" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="D90" s="6">
+        <v>119.17</v>
+      </c>
+      <c r="E90" s="6">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.25752999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>60</v>
+      </c>
+      <c r="B91" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1.0311999999999999</v>
+      </c>
+      <c r="D91" s="6">
+        <v>123.26</v>
+      </c>
+      <c r="E91" s="6">
+        <v>134.71</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.26496999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>60</v>
+      </c>
+      <c r="B92" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C92" s="6">
+        <v>1.0709</v>
+      </c>
+      <c r="D92" s="6">
+        <v>127.42</v>
+      </c>
+      <c r="E92" s="6">
+        <v>139.31</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.27227000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>60</v>
+      </c>
+      <c r="B93" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1.1101000000000001</v>
+      </c>
+      <c r="D93" s="6">
+        <v>131.63999999999999</v>
+      </c>
+      <c r="E93" s="6">
+        <v>143.97</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.27944999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>60</v>
+      </c>
+      <c r="B94" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1.1489</v>
+      </c>
+      <c r="D94" s="6">
+        <v>135.94</v>
+      </c>
+      <c r="E94" s="6">
+        <v>148.69</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.28650999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>60</v>
+      </c>
+      <c r="B95" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1.1872</v>
+      </c>
+      <c r="D95" s="6">
+        <v>140.31</v>
+      </c>
+      <c r="E95" s="6">
+        <v>153.49</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.29346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>60</v>
+      </c>
+      <c r="B96" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="D96" s="6">
+        <v>144.76</v>
+      </c>
+      <c r="E96" s="6">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.30031999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>60</v>
+      </c>
+      <c r="B97" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1.2628999999999999</v>
+      </c>
+      <c r="D97" s="6">
+        <v>149.28</v>
+      </c>
+      <c r="E97" s="6">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.30708999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>60</v>
+      </c>
+      <c r="B98" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1.3004</v>
+      </c>
+      <c r="D98" s="6">
+        <v>153.88</v>
+      </c>
+      <c r="E98" s="6">
+        <v>168.31</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.31378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>60</v>
+      </c>
+      <c r="B99" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1.3376999999999999</v>
+      </c>
+      <c r="D99" s="6">
+        <v>158.55000000000001</v>
+      </c>
+      <c r="E99" s="6">
+        <v>173.4</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.32039000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>70</v>
+      </c>
+      <c r="B100" s="6">
+        <v>517.97</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="D100" s="6">
+        <v>102.4</v>
+      </c>
+      <c r="E100" s="6">
+        <v>111.25</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.22084000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>70</v>
+      </c>
+      <c r="B101" s="6">
+        <v>519.67000000000007</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="D101" s="6">
+        <v>102.74</v>
+      </c>
+      <c r="E101" s="6">
+        <v>111.62</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.22156999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>70</v>
+      </c>
+      <c r="B102" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="D102" s="6">
+        <v>106.77</v>
+      </c>
+      <c r="E102" s="6">
+        <v>116.18</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.23018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>70</v>
+      </c>
+      <c r="B103" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="D103" s="6">
+        <v>110.77</v>
+      </c>
+      <c r="E103" s="6">
+        <v>120.69</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.23838000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>70</v>
+      </c>
+      <c r="B104" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="D104" s="6">
+        <v>114.79</v>
+      </c>
+      <c r="E104" s="6">
+        <v>125.2</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0.24629999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>70</v>
+      </c>
+      <c r="B105" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="D105" s="6">
+        <v>118.86</v>
+      </c>
+      <c r="E105" s="6">
+        <v>129.74</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.25398999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>70</v>
+      </c>
+      <c r="B106" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="D106" s="6">
+        <v>122.98</v>
+      </c>
+      <c r="E106" s="6">
+        <v>134.32</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.26151000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>70</v>
+      </c>
+      <c r="B107" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="D107" s="6">
+        <v>127.16</v>
+      </c>
+      <c r="E107" s="6">
+        <v>138.94999999999999</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.26885999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>70</v>
+      </c>
+      <c r="B108" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="D108" s="6">
+        <v>131.4</v>
+      </c>
+      <c r="E108" s="6">
+        <v>143.63999999999999</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.27607999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>70</v>
+      </c>
+      <c r="B109" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D109" s="6">
+        <v>135.72</v>
+      </c>
+      <c r="E109" s="6">
+        <v>148.4</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.28317999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>70</v>
+      </c>
+      <c r="B110" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1.0118</v>
+      </c>
+      <c r="D110" s="6">
+        <v>140.11000000000001</v>
+      </c>
+      <c r="E110" s="6">
+        <v>153.22</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.29016999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>70</v>
+      </c>
+      <c r="B111" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C111" s="6">
+        <v>1.0448999999999999</v>
+      </c>
+      <c r="D111" s="6">
+        <v>144.57</v>
+      </c>
+      <c r="E111" s="6">
+        <v>158.1</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.29705999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>70</v>
+      </c>
+      <c r="B112" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1.0775999999999999</v>
+      </c>
+      <c r="D112" s="6">
+        <v>149.1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>163.06</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.30386000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>70</v>
+      </c>
+      <c r="B113" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1.1101000000000001</v>
+      </c>
+      <c r="D113" s="6">
+        <v>153.71</v>
+      </c>
+      <c r="E113" s="6">
+        <v>168.09</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0.31057000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>70</v>
+      </c>
+      <c r="B114" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1.1424000000000001</v>
+      </c>
+      <c r="D114" s="6">
+        <v>158.4</v>
+      </c>
+      <c r="E114" s="6">
+        <v>173.2</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.31719999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>80</v>
+      </c>
+      <c r="B115" s="6">
+        <v>525.56000000000006</v>
+      </c>
+      <c r="C115" s="6">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="D115" s="6">
+        <v>103.36</v>
+      </c>
+      <c r="E115" s="6">
+        <v>112.22</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.22045000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>80</v>
+      </c>
+      <c r="B116" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="D116" s="6">
+        <v>106.27</v>
+      </c>
+      <c r="E116" s="6">
+        <v>115.51</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.22663</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>80</v>
+      </c>
+      <c r="B117" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="D117" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="E117" s="6">
+        <v>120.12</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0.23501</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>80</v>
+      </c>
+      <c r="B118" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="D118" s="6">
+        <v>114.43</v>
+      </c>
+      <c r="E118" s="6">
+        <v>124.7</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0.24304999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>80</v>
+      </c>
+      <c r="B119" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D119" s="6">
+        <v>118.53</v>
+      </c>
+      <c r="E119" s="6">
+        <v>129.29</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0.25084000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>80</v>
+      </c>
+      <c r="B120" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="D120" s="6">
+        <v>122.69</v>
+      </c>
+      <c r="E120" s="6">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0.25842999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>80</v>
+      </c>
+      <c r="B121" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C121" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="D121" s="6">
+        <v>126.89</v>
+      </c>
+      <c r="E121" s="6">
+        <v>138.59</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0.26584999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>80</v>
+      </c>
+      <c r="B122" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C122" s="6">
+        <v>0.8206</v>
+      </c>
+      <c r="D122" s="6">
+        <v>131.16999999999999</v>
+      </c>
+      <c r="E122" s="6">
+        <v>143.31</v>
+      </c>
+      <c r="F122" s="6">
+        <v>0.27311999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>80</v>
+      </c>
+      <c r="B123" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C123" s="6">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="D123" s="6">
+        <v>135.5</v>
+      </c>
+      <c r="E123" s="6">
+        <v>148.09</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0.28026000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>80</v>
+      </c>
+      <c r="B124" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="D124" s="6">
+        <v>139.91</v>
+      </c>
+      <c r="E124" s="6">
+        <v>152.94</v>
+      </c>
+      <c r="F124" s="6">
+        <v>0.28727999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>80</v>
+      </c>
+      <c r="B125" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="D125" s="6">
+        <v>144.38</v>
+      </c>
+      <c r="E125" s="6">
+        <v>157.85</v>
+      </c>
+      <c r="F125" s="6">
+        <v>0.29420000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>80</v>
+      </c>
+      <c r="B126" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="D126" s="6">
+        <v>148.93</v>
+      </c>
+      <c r="E126" s="6">
+        <v>162.82</v>
+      </c>
+      <c r="F126" s="6">
+        <v>0.30102000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>80</v>
+      </c>
+      <c r="B127" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C127" s="6">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="D127" s="6">
+        <v>153.55000000000001</v>
+      </c>
+      <c r="E127" s="6">
+        <v>167.87</v>
+      </c>
+      <c r="F127" s="6">
+        <v>0.30775000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>80</v>
+      </c>
+      <c r="B128" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C128" s="6">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="D128" s="6">
+        <v>158.25</v>
+      </c>
+      <c r="E128" s="6">
+        <v>172.99</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0.31440000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>90</v>
+      </c>
+      <c r="B129" s="6">
+        <v>532.45000000000005</v>
+      </c>
+      <c r="C129" s="6">
+        <v>0.53173000000000004</v>
+      </c>
+      <c r="D129" s="6">
+        <v>104.23</v>
+      </c>
+      <c r="E129" s="6">
+        <v>113.08</v>
+      </c>
+      <c r="F129" s="6">
+        <v>0.22011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>90</v>
+      </c>
+      <c r="B130" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0.54388000000000003</v>
+      </c>
+      <c r="D130" s="6">
+        <v>105.75</v>
+      </c>
+      <c r="E130" s="6">
+        <v>114.81</v>
+      </c>
+      <c r="F130" s="6">
+        <v>0.22331999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>90</v>
+      </c>
+      <c r="B131" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0.57728999999999997</v>
+      </c>
+      <c r="D131" s="6">
+        <v>109.91</v>
+      </c>
+      <c r="E131" s="6">
+        <v>119.53</v>
+      </c>
+      <c r="F131" s="6">
+        <v>0.23191000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>90</v>
+      </c>
+      <c r="B132" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0.60873999999999995</v>
+      </c>
+      <c r="D132" s="6">
+        <v>114.05</v>
+      </c>
+      <c r="E132" s="6">
+        <v>124.19</v>
+      </c>
+      <c r="F132" s="6">
+        <v>0.24009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>90</v>
+      </c>
+      <c r="B133" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C133" s="6">
+        <v>0.63885000000000003</v>
+      </c>
+      <c r="D133" s="6">
+        <v>118.2</v>
+      </c>
+      <c r="E133" s="6">
+        <v>128.84</v>
+      </c>
+      <c r="F133" s="6">
+        <v>0.24798999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>90</v>
+      </c>
+      <c r="B134" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C134" s="6">
+        <v>0.66796</v>
+      </c>
+      <c r="D134" s="6">
+        <v>122.39</v>
+      </c>
+      <c r="E134" s="6">
+        <v>133.51</v>
+      </c>
+      <c r="F134" s="6">
+        <v>0.25564999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>90</v>
+      </c>
+      <c r="B135" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C135" s="6">
+        <v>0.69628999999999996</v>
+      </c>
+      <c r="D135" s="6">
+        <v>126.63</v>
+      </c>
+      <c r="E135" s="6">
+        <v>138.22</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0.26312999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>90</v>
+      </c>
+      <c r="B136" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0.72399000000000002</v>
+      </c>
+      <c r="D136" s="6">
+        <v>130.91999999999999</v>
+      </c>
+      <c r="E136" s="6">
+        <v>142.97999999999999</v>
+      </c>
+      <c r="F136" s="6">
+        <v>0.27045000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>90</v>
+      </c>
+      <c r="B137" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="D137" s="6">
+        <v>135.28</v>
+      </c>
+      <c r="E137" s="6">
+        <v>147.79</v>
+      </c>
+      <c r="F137" s="6">
+        <v>0.27762999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>90</v>
+      </c>
+      <c r="B138" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0.77795999999999998</v>
+      </c>
+      <c r="D138" s="6">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="E138" s="6">
+        <v>152.66</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0.28469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>90</v>
+      </c>
+      <c r="B139" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C139" s="6">
+        <v>0.80437000000000003</v>
+      </c>
+      <c r="D139" s="6">
+        <v>144.19</v>
+      </c>
+      <c r="E139" s="6">
+        <v>157.59</v>
+      </c>
+      <c r="F139" s="6">
+        <v>0.29164000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>90</v>
+      </c>
+      <c r="B140" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C140" s="6">
+        <v>0.83048</v>
+      </c>
+      <c r="D140" s="6">
+        <v>148.75</v>
+      </c>
+      <c r="E140" s="6">
+        <v>162.58000000000001</v>
+      </c>
+      <c r="F140" s="6">
+        <v>0.29848999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>90</v>
+      </c>
+      <c r="B141" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C141" s="6">
+        <v>0.85633000000000004</v>
+      </c>
+      <c r="D141" s="6">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="E141" s="6">
+        <v>167.65</v>
+      </c>
+      <c r="F141" s="6">
+        <v>0.30524000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>90</v>
+      </c>
+      <c r="B142" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C142" s="6">
+        <v>0.88195000000000001</v>
+      </c>
+      <c r="D142" s="6">
+        <v>158.09</v>
+      </c>
+      <c r="E142" s="6">
+        <v>172.78</v>
+      </c>
+      <c r="F142" s="6">
+        <v>0.31191000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>100</v>
+      </c>
+      <c r="B143" s="6">
+        <v>538.79</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0.47810999999999998</v>
+      </c>
+      <c r="D143" s="6">
+        <v>105.01</v>
+      </c>
+      <c r="E143" s="6">
+        <v>113.85</v>
+      </c>
+      <c r="F143" s="6">
+        <v>0.21981000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>100</v>
+      </c>
+      <c r="B144" s="6">
+        <v>539.67000000000007</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0.47905999999999999</v>
+      </c>
+      <c r="D144" s="6">
+        <v>105.19</v>
+      </c>
+      <c r="E144" s="6">
+        <v>114.06</v>
+      </c>
+      <c r="F144" s="6">
+        <v>0.22017999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>100</v>
+      </c>
+      <c r="B145" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0.51075999999999999</v>
+      </c>
+      <c r="D145" s="6">
+        <v>109.46</v>
+      </c>
+      <c r="E145" s="6">
+        <v>118.91</v>
+      </c>
+      <c r="F145" s="6">
+        <v>0.22902</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>100</v>
+      </c>
+      <c r="B146" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C146" s="6">
+        <v>0.54022000000000003</v>
+      </c>
+      <c r="D146" s="6">
+        <v>113.66</v>
+      </c>
+      <c r="E146" s="6">
+        <v>123.66</v>
+      </c>
+      <c r="F146" s="6">
+        <v>0.23735000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>100</v>
+      </c>
+      <c r="B147" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0.56820999999999999</v>
+      </c>
+      <c r="D147" s="6">
+        <v>117.86</v>
+      </c>
+      <c r="E147" s="6">
+        <v>128.38</v>
+      </c>
+      <c r="F147" s="6">
+        <v>0.24535000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>100</v>
+      </c>
+      <c r="B148" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0.59513000000000005</v>
+      </c>
+      <c r="D148" s="6">
+        <v>122.09</v>
+      </c>
+      <c r="E148" s="6">
+        <v>133.1</v>
+      </c>
+      <c r="F148" s="6">
+        <v>0.25309999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>100</v>
+      </c>
+      <c r="B149" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0.62121999999999999</v>
+      </c>
+      <c r="D149" s="6">
+        <v>126.36</v>
+      </c>
+      <c r="E149" s="6">
+        <v>137.85</v>
+      </c>
+      <c r="F149" s="6">
+        <v>0.26064999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>100</v>
+      </c>
+      <c r="B150" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C150" s="6">
+        <v>0.64666999999999997</v>
+      </c>
+      <c r="D150" s="6">
+        <v>130.68</v>
+      </c>
+      <c r="E150" s="6">
+        <v>142.63999999999999</v>
+      </c>
+      <c r="F150" s="6">
+        <v>0.26801999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>100</v>
+      </c>
+      <c r="B151" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C151" s="6">
+        <v>0.67157999999999995</v>
+      </c>
+      <c r="D151" s="6">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="E151" s="6">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="F151" s="6">
+        <v>0.27524999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>100</v>
+      </c>
+      <c r="B152" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C152" s="6">
+        <v>0.69604999999999995</v>
+      </c>
+      <c r="D152" s="6">
+        <v>139.5</v>
+      </c>
+      <c r="E152" s="6">
+        <v>152.38</v>
+      </c>
+      <c r="F152" s="6">
+        <v>0.28233999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>100</v>
+      </c>
+      <c r="B153" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C153" s="6">
+        <v>0.72016000000000002</v>
+      </c>
+      <c r="D153" s="6">
+        <v>144</v>
+      </c>
+      <c r="E153" s="6">
+        <v>157.33000000000001</v>
+      </c>
+      <c r="F153" s="6">
+        <v>0.28932000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>100</v>
+      </c>
+      <c r="B154" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0.74395999999999995</v>
+      </c>
+      <c r="D154" s="6">
+        <v>148.58000000000001</v>
+      </c>
+      <c r="E154" s="6">
+        <v>162.34</v>
+      </c>
+      <c r="F154" s="6">
+        <v>0.29620000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>100</v>
+      </c>
+      <c r="B155" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C155" s="6">
+        <v>0.76749000000000001</v>
+      </c>
+      <c r="D155" s="6">
+        <v>153.22</v>
+      </c>
+      <c r="E155" s="6">
+        <v>167.42</v>
+      </c>
+      <c r="F155" s="6">
+        <v>0.30297000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>100</v>
+      </c>
+      <c r="B156" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0.79078999999999999</v>
+      </c>
+      <c r="D156" s="6">
+        <v>157.94</v>
+      </c>
+      <c r="E156" s="6">
+        <v>172.57</v>
+      </c>
+      <c r="F156" s="6">
+        <v>0.30965999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>120</v>
+      </c>
+      <c r="B157" s="6">
+        <v>550.16</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0.39681</v>
+      </c>
+      <c r="D157" s="6">
+        <v>106.37</v>
+      </c>
+      <c r="E157" s="6">
+        <v>115.18</v>
+      </c>
+      <c r="F157" s="6">
+        <v>0.21928</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>120</v>
+      </c>
+      <c r="B158" s="6">
+        <v>559.67000000000007</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0.41012999999999999</v>
+      </c>
+      <c r="D158" s="6">
+        <v>108.49</v>
+      </c>
+      <c r="E158" s="6">
+        <v>117.59</v>
+      </c>
+      <c r="F158" s="6">
+        <v>0.22364000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>120</v>
+      </c>
+      <c r="B159" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C159" s="6">
+        <v>0.43691999999999998</v>
+      </c>
+      <c r="D159" s="6">
+        <v>112.85</v>
+      </c>
+      <c r="E159" s="6">
+        <v>122.55</v>
+      </c>
+      <c r="F159" s="6">
+        <v>0.23233999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>120</v>
+      </c>
+      <c r="B160" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="D160" s="6">
+        <v>117.16</v>
+      </c>
+      <c r="E160" s="6">
+        <v>127.42</v>
+      </c>
+      <c r="F160" s="6">
+        <v>0.24059</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>120</v>
+      </c>
+      <c r="B161" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0.48563000000000001</v>
+      </c>
+      <c r="D161" s="6">
+        <v>121.47</v>
+      </c>
+      <c r="E161" s="6">
+        <v>132.25</v>
+      </c>
+      <c r="F161" s="6">
+        <v>0.24853</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>120</v>
+      </c>
+      <c r="B162" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0.50844</v>
+      </c>
+      <c r="D162" s="6">
+        <v>125.8</v>
+      </c>
+      <c r="E162" s="6">
+        <v>137.09</v>
+      </c>
+      <c r="F162" s="6">
+        <v>0.25620999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>120</v>
+      </c>
+      <c r="B163" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C163" s="6">
+        <v>0.53054000000000001</v>
+      </c>
+      <c r="D163" s="6">
+        <v>130.18</v>
+      </c>
+      <c r="E163" s="6">
+        <v>141.96</v>
+      </c>
+      <c r="F163" s="6">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>120</v>
+      </c>
+      <c r="B164" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C164" s="6">
+        <v>0.55206</v>
+      </c>
+      <c r="D164" s="6">
+        <v>134.6</v>
+      </c>
+      <c r="E164" s="6">
+        <v>146.86000000000001</v>
+      </c>
+      <c r="F164" s="6">
+        <v>0.27101999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>120</v>
+      </c>
+      <c r="B165" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C165" s="6">
+        <v>0.57311999999999996</v>
+      </c>
+      <c r="D165" s="6">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="E165" s="6">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="F165" s="6">
+        <v>0.27818999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>120</v>
+      </c>
+      <c r="B166" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C166" s="6">
+        <v>0.59379000000000004</v>
+      </c>
+      <c r="D166" s="6">
+        <v>143.62</v>
+      </c>
+      <c r="E166" s="6">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="F166" s="6">
+        <v>0.28522999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>120</v>
+      </c>
+      <c r="B167" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C167" s="6">
+        <v>0.61412999999999995</v>
+      </c>
+      <c r="D167" s="6">
+        <v>148.22</v>
+      </c>
+      <c r="E167" s="6">
+        <v>161.86000000000001</v>
+      </c>
+      <c r="F167" s="6">
+        <v>0.29215999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>120</v>
+      </c>
+      <c r="B168" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C168" s="6">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="D168" s="6">
+        <v>152.88999999999999</v>
+      </c>
+      <c r="E168" s="6">
+        <v>166.97</v>
+      </c>
+      <c r="F168" s="6">
+        <v>0.29898000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>120</v>
+      </c>
+      <c r="B169" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C169" s="6">
+        <v>0.65402000000000005</v>
+      </c>
+      <c r="D169" s="6">
+        <v>157.62</v>
+      </c>
+      <c r="E169" s="6">
+        <v>172.15</v>
+      </c>
+      <c r="F169" s="6">
+        <v>0.30570999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>140</v>
+      </c>
+      <c r="B170" s="6">
+        <v>560.18000000000006</v>
+      </c>
+      <c r="C170" s="6">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D170" s="6">
+        <v>107.52</v>
+      </c>
+      <c r="E170" s="6">
+        <v>116.28</v>
+      </c>
+      <c r="F170" s="6">
+        <v>0.21883</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>140</v>
+      </c>
+      <c r="B171" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C171" s="6">
+        <v>0.36242999999999997</v>
+      </c>
+      <c r="D171" s="6">
+        <v>111.97</v>
+      </c>
+      <c r="E171" s="6">
+        <v>121.36</v>
+      </c>
+      <c r="F171" s="6">
+        <v>0.22775000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>140</v>
+      </c>
+      <c r="B172" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C172" s="6">
+        <v>0.38551000000000002</v>
+      </c>
+      <c r="D172" s="6">
+        <v>116.42</v>
+      </c>
+      <c r="E172" s="6">
+        <v>126.4</v>
+      </c>
+      <c r="F172" s="6">
+        <v>0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>140</v>
+      </c>
+      <c r="B173" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C173" s="6">
+        <v>0.40711000000000003</v>
+      </c>
+      <c r="D173" s="6">
+        <v>120.82</v>
+      </c>
+      <c r="E173" s="6">
+        <v>131.37</v>
+      </c>
+      <c r="F173" s="6">
+        <v>0.24443999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>140</v>
+      </c>
+      <c r="B174" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C174" s="6">
+        <v>0.42765999999999998</v>
+      </c>
+      <c r="D174" s="6">
+        <v>125.23</v>
+      </c>
+      <c r="E174" s="6">
+        <v>136.31</v>
+      </c>
+      <c r="F174" s="6">
+        <v>0.25229000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>140</v>
+      </c>
+      <c r="B175" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C175" s="6">
+        <v>0.44742999999999999</v>
+      </c>
+      <c r="D175" s="6">
+        <v>129.66</v>
+      </c>
+      <c r="E175" s="6">
+        <v>141.25</v>
+      </c>
+      <c r="F175" s="6">
+        <v>0.25990000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>140</v>
+      </c>
+      <c r="B176" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C176" s="6">
+        <v>0.46656999999999998</v>
+      </c>
+      <c r="D176" s="6">
+        <v>134.13</v>
+      </c>
+      <c r="E176" s="6">
+        <v>146.22</v>
+      </c>
+      <c r="F176" s="6">
+        <v>0.26730999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>140</v>
+      </c>
+      <c r="B177" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C177" s="6">
+        <v>0.48521999999999998</v>
+      </c>
+      <c r="D177" s="6">
+        <v>138.65</v>
+      </c>
+      <c r="E177" s="6">
+        <v>151.22</v>
+      </c>
+      <c r="F177" s="6">
+        <v>0.27456999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>140</v>
+      </c>
+      <c r="B178" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C178" s="6">
+        <v>0.50344999999999995</v>
+      </c>
+      <c r="D178" s="6">
+        <v>143.22</v>
+      </c>
+      <c r="E178" s="6">
+        <v>156.26</v>
+      </c>
+      <c r="F178" s="6">
+        <v>0.28167999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>140</v>
+      </c>
+      <c r="B179" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C179" s="6">
+        <v>0.52134000000000003</v>
+      </c>
+      <c r="D179" s="6">
+        <v>147.85</v>
+      </c>
+      <c r="E179" s="6">
+        <v>161.36000000000001</v>
+      </c>
+      <c r="F179" s="6">
+        <v>0.28866000000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>140</v>
+      </c>
+      <c r="B180" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C180" s="6">
+        <v>0.53895000000000004</v>
+      </c>
+      <c r="D180" s="6">
+        <v>152.55000000000001</v>
+      </c>
+      <c r="E180" s="6">
+        <v>166.51</v>
+      </c>
+      <c r="F180" s="6">
+        <v>0.29553000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>140</v>
+      </c>
+      <c r="B181" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C181" s="6">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="D181" s="6">
+        <v>157.31</v>
+      </c>
+      <c r="E181" s="6">
+        <v>171.72</v>
+      </c>
+      <c r="F181" s="6">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>140</v>
+      </c>
+      <c r="B182" s="6">
+        <v>799.67000000000007</v>
+      </c>
+      <c r="C182" s="6">
+        <v>0.57345000000000002</v>
+      </c>
+      <c r="D182" s="6">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="E182" s="6">
+        <v>176.99</v>
+      </c>
+      <c r="F182" s="6">
+        <v>0.30897999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>140</v>
+      </c>
+      <c r="B183" s="6">
+        <v>819.67000000000007</v>
+      </c>
+      <c r="C183" s="6">
+        <v>0.59040999999999999</v>
+      </c>
+      <c r="D183" s="6">
+        <v>167.03</v>
+      </c>
+      <c r="E183" s="6">
+        <v>182.33</v>
+      </c>
+      <c r="F183" s="6">
+        <v>0.31557000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>160</v>
+      </c>
+      <c r="B184" s="6">
+        <v>569.17000000000007</v>
+      </c>
+      <c r="C184" s="6">
+        <v>0.29338999999999998</v>
+      </c>
+      <c r="D184" s="6">
+        <v>108.51</v>
+      </c>
+      <c r="E184" s="6">
+        <v>117.2</v>
+      </c>
+      <c r="F184" s="6">
+        <v>0.21840000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>160</v>
+      </c>
+      <c r="B185" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C185" s="6">
+        <v>0.30578</v>
+      </c>
+      <c r="D185" s="6">
+        <v>111.01</v>
+      </c>
+      <c r="E185" s="6">
+        <v>120.07</v>
+      </c>
+      <c r="F185" s="6">
+        <v>0.22339000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>160</v>
+      </c>
+      <c r="B186" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C186" s="6">
+        <v>0.32773999999999998</v>
+      </c>
+      <c r="D186" s="6">
+        <v>115.63</v>
+      </c>
+      <c r="E186" s="6">
+        <v>125.32</v>
+      </c>
+      <c r="F186" s="6">
+        <v>0.23232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>160</v>
+      </c>
+      <c r="B187" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C187" s="6">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="D187" s="6">
+        <v>120.14</v>
+      </c>
+      <c r="E187" s="6">
+        <v>130.44</v>
+      </c>
+      <c r="F187" s="6">
+        <v>0.2407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>160</v>
+      </c>
+      <c r="B188" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C188" s="6">
+        <v>0.36686000000000002</v>
+      </c>
+      <c r="D188" s="6">
+        <v>124.63</v>
+      </c>
+      <c r="E188" s="6">
+        <v>135.49</v>
+      </c>
+      <c r="F188" s="6">
+        <v>0.24872</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>160</v>
+      </c>
+      <c r="B189" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C189" s="6">
+        <v>0.38494</v>
+      </c>
+      <c r="D189" s="6">
+        <v>129.13</v>
+      </c>
+      <c r="E189" s="6">
+        <v>140.52000000000001</v>
+      </c>
+      <c r="F189" s="6">
+        <v>0.25646999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>160</v>
+      </c>
+      <c r="B190" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C190" s="6">
+        <v>0.40233999999999998</v>
+      </c>
+      <c r="D190" s="6">
+        <v>133.65</v>
+      </c>
+      <c r="E190" s="6">
+        <v>145.56</v>
+      </c>
+      <c r="F190" s="6">
+        <v>0.26399</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>160</v>
+      </c>
+      <c r="B191" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C191" s="6">
+        <v>0.41921000000000003</v>
+      </c>
+      <c r="D191" s="6">
+        <v>138.21</v>
+      </c>
+      <c r="E191" s="6">
+        <v>150.62</v>
+      </c>
+      <c r="F191" s="6">
+        <v>0.27133000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>160</v>
+      </c>
+      <c r="B192" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C192" s="6">
+        <v>0.43564000000000003</v>
+      </c>
+      <c r="D192" s="6">
+        <v>142.82</v>
+      </c>
+      <c r="E192" s="6">
+        <v>155.72</v>
+      </c>
+      <c r="F192" s="6">
+        <v>0.27850999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>160</v>
+      </c>
+      <c r="B193" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C193" s="6">
+        <v>0.45171</v>
+      </c>
+      <c r="D193" s="6">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="E193" s="6">
+        <v>160.86000000000001</v>
+      </c>
+      <c r="F193" s="6">
+        <v>0.28555000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>160</v>
+      </c>
+      <c r="B194" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C194" s="6">
+        <v>0.46748000000000001</v>
+      </c>
+      <c r="D194" s="6">
+        <v>152.21</v>
+      </c>
+      <c r="E194" s="6">
+        <v>166.05</v>
+      </c>
+      <c r="F194" s="6">
+        <v>0.29248000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>160</v>
+      </c>
+      <c r="B195" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C195" s="6">
+        <v>0.48298999999999997</v>
+      </c>
+      <c r="D195" s="6">
+        <v>156.99</v>
+      </c>
+      <c r="E195" s="6">
+        <v>171.29</v>
+      </c>
+      <c r="F195" s="6">
+        <v>0.29929</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>160</v>
+      </c>
+      <c r="B196" s="6">
+        <v>799.67000000000007</v>
+      </c>
+      <c r="C196" s="6">
+        <v>0.49828</v>
+      </c>
+      <c r="D196" s="6">
+        <v>161.84</v>
+      </c>
+      <c r="E196" s="6">
+        <v>176.59</v>
+      </c>
+      <c r="F196" s="6">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>160</v>
+      </c>
+      <c r="B197" s="6">
+        <v>819.67000000000007</v>
+      </c>
+      <c r="C197" s="6">
+        <v>0.51337999999999995</v>
+      </c>
+      <c r="D197" s="6">
+        <v>166.75</v>
+      </c>
+      <c r="E197" s="6">
+        <v>181.95</v>
+      </c>
+      <c r="F197" s="6">
+        <v>0.31262000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>180</v>
+      </c>
+      <c r="B198" s="6">
+        <v>577.36</v>
+      </c>
+      <c r="C198" s="6">
+        <v>0.25833</v>
+      </c>
+      <c r="D198" s="6">
+        <v>109.38</v>
+      </c>
+      <c r="E198" s="6">
+        <v>117.98</v>
+      </c>
+      <c r="F198" s="6">
+        <v>0.21798999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>180</v>
+      </c>
+      <c r="B199" s="6">
+        <v>579.67000000000007</v>
+      </c>
+      <c r="C199" s="6">
+        <v>0.26083000000000001</v>
+      </c>
+      <c r="D199" s="6">
+        <v>109.95</v>
+      </c>
+      <c r="E199" s="6">
+        <v>118.64</v>
+      </c>
+      <c r="F199" s="6">
+        <v>0.21912000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>180</v>
+      </c>
+      <c r="B200" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C200" s="6">
+        <v>0.28231000000000001</v>
+      </c>
+      <c r="D200" s="6">
+        <v>114.78</v>
+      </c>
+      <c r="E200" s="6">
+        <v>124.18</v>
+      </c>
+      <c r="F200" s="6">
+        <v>0.22852</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>180</v>
+      </c>
+      <c r="B201" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C201" s="6">
+        <v>0.30153999999999997</v>
+      </c>
+      <c r="D201" s="6">
+        <v>119.43</v>
+      </c>
+      <c r="E201" s="6">
+        <v>129.47</v>
+      </c>
+      <c r="F201" s="6">
+        <v>0.23719999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>180</v>
+      </c>
+      <c r="B202" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C202" s="6">
+        <v>0.31935999999999998</v>
+      </c>
+      <c r="D202" s="6">
+        <v>124.01</v>
+      </c>
+      <c r="E202" s="6">
+        <v>134.65</v>
+      </c>
+      <c r="F202" s="6">
+        <v>0.24542</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>180</v>
+      </c>
+      <c r="B203" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C203" s="6">
+        <v>0.33618999999999999</v>
+      </c>
+      <c r="D203" s="6">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="E203" s="6">
+        <v>139.77000000000001</v>
+      </c>
+      <c r="F203" s="6">
+        <v>0.25331999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>180</v>
+      </c>
+      <c r="B204" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C204" s="6">
+        <v>0.35227999999999998</v>
+      </c>
+      <c r="D204" s="6">
+        <v>133.16</v>
+      </c>
+      <c r="E204" s="6">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="F204" s="6">
+        <v>0.26095000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>180</v>
+      </c>
+      <c r="B205" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C205" s="6">
+        <v>0.36779000000000001</v>
+      </c>
+      <c r="D205" s="6">
+        <v>137.76</v>
+      </c>
+      <c r="E205" s="6">
+        <v>150.01</v>
+      </c>
+      <c r="F205" s="6">
+        <v>0.26838000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>180</v>
+      </c>
+      <c r="B206" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C206" s="6">
+        <v>0.38284000000000001</v>
+      </c>
+      <c r="D206" s="6">
+        <v>142.41</v>
+      </c>
+      <c r="E206" s="6">
+        <v>155.16</v>
+      </c>
+      <c r="F206" s="6">
+        <v>0.27564</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>180</v>
+      </c>
+      <c r="B207" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C207" s="6">
+        <v>0.39750999999999997</v>
+      </c>
+      <c r="D207" s="6">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="E207" s="6">
+        <v>160.35</v>
+      </c>
+      <c r="F207" s="6">
+        <v>0.28275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>180</v>
+      </c>
+      <c r="B208" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C208" s="6">
+        <v>0.41186</v>
+      </c>
+      <c r="D208" s="6">
+        <v>151.86000000000001</v>
+      </c>
+      <c r="E208" s="6">
+        <v>165.58</v>
+      </c>
+      <c r="F208" s="6">
+        <v>0.28971999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>180</v>
+      </c>
+      <c r="B209" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C209" s="6">
+        <v>0.42593999999999999</v>
+      </c>
+      <c r="D209" s="6">
+        <v>156.66999999999999</v>
+      </c>
+      <c r="E209" s="6">
+        <v>170.85</v>
+      </c>
+      <c r="F209" s="6">
+        <v>0.29658000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>180</v>
+      </c>
+      <c r="B210" s="6">
+        <v>799.67000000000007</v>
+      </c>
+      <c r="C210" s="6">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="D210" s="6">
+        <v>161.53</v>
+      </c>
+      <c r="E210" s="6">
+        <v>176.18</v>
+      </c>
+      <c r="F210" s="6">
+        <v>0.30332999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>180</v>
+      </c>
+      <c r="B211" s="6">
+        <v>819.67000000000007</v>
+      </c>
+      <c r="C211" s="6">
+        <v>0.45346999999999998</v>
+      </c>
+      <c r="D211" s="6">
+        <v>166.47</v>
+      </c>
+      <c r="E211" s="6">
+        <v>181.57</v>
+      </c>
+      <c r="F211" s="6">
+        <v>0.30997999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>200</v>
+      </c>
+      <c r="B212" s="6">
+        <v>584.89</v>
+      </c>
+      <c r="C212" s="6">
+        <v>0.23000999999999999</v>
+      </c>
+      <c r="D212" s="6">
+        <v>110.13</v>
+      </c>
+      <c r="E212" s="6">
+        <v>118.64</v>
+      </c>
+      <c r="F212" s="6">
+        <v>0.21757000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <v>200</v>
+      </c>
+      <c r="B213" s="6">
+        <v>599.67000000000007</v>
+      </c>
+      <c r="C213" s="6">
+        <v>0.24540999999999999</v>
+      </c>
+      <c r="D213" s="6">
+        <v>113.86</v>
+      </c>
+      <c r="E213" s="6">
+        <v>122.94</v>
+      </c>
+      <c r="F213" s="6">
+        <v>0.22483</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>200</v>
+      </c>
+      <c r="B214" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C214" s="6">
+        <v>0.26412000000000002</v>
+      </c>
+      <c r="D214" s="6">
+        <v>118.67</v>
+      </c>
+      <c r="E214" s="6">
+        <v>128.44</v>
+      </c>
+      <c r="F214" s="6">
+        <v>0.23386000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>200</v>
+      </c>
+      <c r="B215" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C215" s="6">
+        <v>0.28115000000000001</v>
+      </c>
+      <c r="D215" s="6">
+        <v>123.36</v>
+      </c>
+      <c r="E215" s="6">
+        <v>133.77000000000001</v>
+      </c>
+      <c r="F215" s="6">
+        <v>0.24231</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>200</v>
+      </c>
+      <c r="B216" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C216" s="6">
+        <v>0.29704000000000003</v>
+      </c>
+      <c r="D216" s="6">
+        <v>128.01</v>
+      </c>
+      <c r="E216" s="6">
+        <v>139</v>
+      </c>
+      <c r="F216" s="6">
+        <v>0.25036999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>200</v>
+      </c>
+      <c r="B217" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C217" s="6">
+        <v>0.31212000000000001</v>
+      </c>
+      <c r="D217" s="6">
+        <v>132.65</v>
+      </c>
+      <c r="E217" s="6">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="F217" s="6">
+        <v>0.25813000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>200</v>
+      </c>
+      <c r="B218" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C218" s="6">
+        <v>0.32657999999999998</v>
+      </c>
+      <c r="D218" s="6">
+        <v>137.31</v>
+      </c>
+      <c r="E218" s="6">
+        <v>149.38999999999999</v>
+      </c>
+      <c r="F218" s="6">
+        <v>0.26566000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>200</v>
+      </c>
+      <c r="B219" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C219" s="6">
+        <v>0.34054000000000001</v>
+      </c>
+      <c r="D219" s="6">
+        <v>141.99</v>
+      </c>
+      <c r="E219" s="6">
+        <v>154.6</v>
+      </c>
+      <c r="F219" s="6">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>200</v>
+      </c>
+      <c r="B220" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C220" s="6">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="D220" s="6">
+        <v>146.72999999999999</v>
+      </c>
+      <c r="E220" s="6">
+        <v>159.83000000000001</v>
+      </c>
+      <c r="F220" s="6">
+        <v>0.28016999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>200</v>
+      </c>
+      <c r="B221" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C221" s="6">
+        <v>0.36732999999999999</v>
+      </c>
+      <c r="D221" s="6">
+        <v>151.5</v>
+      </c>
+      <c r="E221" s="6">
+        <v>165.1</v>
+      </c>
+      <c r="F221" s="6">
+        <v>0.28720000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>200</v>
+      </c>
+      <c r="B222" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C222" s="6">
+        <v>0.38029000000000002</v>
+      </c>
+      <c r="D222" s="6">
+        <v>156.34</v>
+      </c>
+      <c r="E222" s="6">
+        <v>170.41</v>
+      </c>
+      <c r="F222" s="6">
+        <v>0.29409999999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>200</v>
+      </c>
+      <c r="B223" s="6">
+        <v>799.67000000000007</v>
+      </c>
+      <c r="C223" s="6">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D223" s="6">
+        <v>161.22999999999999</v>
+      </c>
+      <c r="E223" s="6">
+        <v>175.77</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0.30088999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>200</v>
+      </c>
+      <c r="B224" s="6">
+        <v>819.67000000000007</v>
+      </c>
+      <c r="C224" s="6">
+        <v>0.40551999999999999</v>
+      </c>
+      <c r="D224" s="6">
+        <v>166.18</v>
+      </c>
+      <c r="E224" s="6">
+        <v>181.19</v>
+      </c>
+      <c r="F224" s="6">
+        <v>0.30758000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>300</v>
+      </c>
+      <c r="B225" s="6">
+        <v>615.76</v>
+      </c>
+      <c r="C225" s="6">
+        <v>0.14279</v>
+      </c>
+      <c r="D225" s="6">
+        <v>112.61</v>
+      </c>
+      <c r="E225" s="6">
+        <v>120.54</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0.21517</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>300</v>
+      </c>
+      <c r="B226" s="6">
+        <v>619.67000000000007</v>
+      </c>
+      <c r="C226" s="6">
+        <v>0.14656</v>
+      </c>
+      <c r="D226" s="6">
+        <v>113.82</v>
+      </c>
+      <c r="E226" s="6">
+        <v>121.96</v>
+      </c>
+      <c r="F226" s="6">
+        <v>0.21747</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>300</v>
+      </c>
+      <c r="B227" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C227" s="6">
+        <v>0.16355</v>
+      </c>
+      <c r="D227" s="6">
+        <v>119.53</v>
+      </c>
+      <c r="E227" s="6">
+        <v>128.61000000000001</v>
+      </c>
+      <c r="F227" s="6">
+        <v>0.22803000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>300</v>
+      </c>
+      <c r="B228" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C228" s="6">
+        <v>0.17776</v>
+      </c>
+      <c r="D228" s="6">
+        <v>124.79</v>
+      </c>
+      <c r="E228" s="6">
+        <v>134.66</v>
+      </c>
+      <c r="F228" s="6">
+        <v>0.23734</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>300</v>
+      </c>
+      <c r="B229" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C229" s="6">
+        <v>0.19044</v>
+      </c>
+      <c r="D229" s="6">
+        <v>129.86000000000001</v>
+      </c>
+      <c r="E229" s="6">
+        <v>140.43</v>
+      </c>
+      <c r="F229" s="6">
+        <v>0.24596000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>300</v>
+      </c>
+      <c r="B230" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C230" s="6">
+        <v>0.20211000000000001</v>
+      </c>
+      <c r="D230" s="6">
+        <v>134.83000000000001</v>
+      </c>
+      <c r="E230" s="6">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="F230" s="6">
+        <v>0.25412000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>300</v>
+      </c>
+      <c r="B231" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C231" s="6">
+        <v>0.21306</v>
+      </c>
+      <c r="D231" s="6">
+        <v>139.77000000000001</v>
+      </c>
+      <c r="E231" s="6">
+        <v>151.6</v>
+      </c>
+      <c r="F231" s="6">
+        <v>0.26193</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>300</v>
+      </c>
+      <c r="B232" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C232" s="6">
+        <v>0.22347</v>
+      </c>
+      <c r="D232" s="6">
+        <v>144.71</v>
+      </c>
+      <c r="E232" s="6">
+        <v>157.11000000000001</v>
+      </c>
+      <c r="F232" s="6">
+        <v>0.26949000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>300</v>
+      </c>
+      <c r="B233" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C233" s="6">
+        <v>0.23346</v>
+      </c>
+      <c r="D233" s="6">
+        <v>149.66</v>
+      </c>
+      <c r="E233" s="6">
+        <v>162.62</v>
+      </c>
+      <c r="F233" s="6">
+        <v>0.27683000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>300</v>
+      </c>
+      <c r="B234" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C234" s="6">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="D234" s="6">
+        <v>154.63</v>
+      </c>
+      <c r="E234" s="6">
+        <v>168.13</v>
+      </c>
+      <c r="F234" s="6">
+        <v>0.28399000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>300</v>
+      </c>
+      <c r="B235" s="6">
+        <v>799.67000000000007</v>
+      </c>
+      <c r="C235" s="6">
+        <v>0.25246000000000002</v>
+      </c>
+      <c r="D235" s="6">
+        <v>159.65</v>
+      </c>
+      <c r="E235" s="6">
+        <v>173.66</v>
+      </c>
+      <c r="F235" s="6">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>300</v>
+      </c>
+      <c r="B236" s="6">
+        <v>819.67000000000007</v>
+      </c>
+      <c r="C236" s="6">
+        <v>0.26158999999999999</v>
+      </c>
+      <c r="D236" s="6">
+        <v>164.71</v>
+      </c>
+      <c r="E236" s="6">
+        <v>179.23</v>
+      </c>
+      <c r="F236" s="6">
+        <v>0.29787999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>400</v>
+      </c>
+      <c r="B237" s="6">
+        <v>639.53</v>
+      </c>
+      <c r="C237" s="6">
+        <v>9.6430000000000002E-2</v>
+      </c>
+      <c r="D237" s="6">
+        <v>113.36</v>
+      </c>
+      <c r="E237" s="6">
+        <v>120.5</v>
+      </c>
+      <c r="F237" s="6">
+        <v>0.21163999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>400</v>
+      </c>
+      <c r="B238" s="6">
+        <v>639.67000000000007</v>
+      </c>
+      <c r="C238" s="6">
+        <v>9.6579999999999999E-2</v>
+      </c>
+      <c r="D238" s="6">
+        <v>113.42</v>
+      </c>
+      <c r="E238" s="6">
+        <v>120.56</v>
+      </c>
+      <c r="F238" s="6">
+        <v>0.21174000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>400</v>
+      </c>
+      <c r="B239" s="6">
+        <v>659.67000000000007</v>
+      </c>
+      <c r="C239" s="6">
+        <v>0.1144</v>
+      </c>
+      <c r="D239" s="6">
+        <v>120.53</v>
+      </c>
+      <c r="E239" s="6">
+        <v>128.99</v>
+      </c>
+      <c r="F239" s="6">
+        <v>0.22473000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>400</v>
+      </c>
+      <c r="B240" s="6">
+        <v>679.67000000000007</v>
+      </c>
+      <c r="C240" s="6">
+        <v>0.12745999999999999</v>
+      </c>
+      <c r="D240" s="6">
+        <v>126.45</v>
+      </c>
+      <c r="E240" s="6">
+        <v>135.88</v>
+      </c>
+      <c r="F240" s="6">
+        <v>0.23502000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>400</v>
+      </c>
+      <c r="B241" s="6">
+        <v>699.67000000000007</v>
+      </c>
+      <c r="C241" s="6">
+        <v>0.13852999999999999</v>
+      </c>
+      <c r="D241" s="6">
+        <v>131.96</v>
+      </c>
+      <c r="E241" s="6">
+        <v>142.21</v>
+      </c>
+      <c r="F241" s="6">
+        <v>0.2442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>400</v>
+      </c>
+      <c r="B242" s="6">
+        <v>719.67000000000007</v>
+      </c>
+      <c r="C242" s="6">
+        <v>0.14843999999999999</v>
+      </c>
+      <c r="D242" s="6">
+        <v>137.27000000000001</v>
+      </c>
+      <c r="E242" s="6">
+        <v>148.26</v>
+      </c>
+      <c r="F242" s="6">
+        <v>0.25272</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>400</v>
+      </c>
+      <c r="B243" s="6">
+        <v>739.67000000000007</v>
+      </c>
+      <c r="C243" s="6">
+        <v>0.15756000000000001</v>
+      </c>
+      <c r="D243" s="6">
+        <v>142.47999999999999</v>
+      </c>
+      <c r="E243" s="6">
+        <v>154.15</v>
+      </c>
+      <c r="F243" s="6">
+        <v>0.26079000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>400</v>
+      </c>
+      <c r="B244" s="6">
+        <v>759.67000000000007</v>
+      </c>
+      <c r="C244" s="6">
+        <v>0.16611000000000001</v>
+      </c>
+      <c r="D244" s="6">
+        <v>147.65</v>
+      </c>
+      <c r="E244" s="6">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="F244" s="6">
+        <v>0.26852999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>400</v>
+      </c>
+      <c r="B245" s="6">
+        <v>779.67000000000007</v>
+      </c>
+      <c r="C245" s="6">
+        <v>0.17423</v>
+      </c>
+      <c r="D245" s="6">
+        <v>152.81</v>
+      </c>
+      <c r="E245" s="6">
+        <v>165.71</v>
+      </c>
+      <c r="F245" s="6">
+        <v>0.27600999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>400</v>
+      </c>
+      <c r="B246" s="6">
+        <v>799.67000000000007</v>
+      </c>
+      <c r="C246" s="6">
+        <v>0.18201000000000001</v>
+      </c>
+      <c r="D246" s="6">
+        <v>157.97</v>
+      </c>
+      <c r="E246" s="6">
+        <v>171.45</v>
+      </c>
+      <c r="F246" s="6">
+        <v>0.28327999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>400</v>
+      </c>
+      <c r="B247" s="6">
+        <v>819.67000000000007</v>
+      </c>
+      <c r="C247" s="6">
+        <v>0.18951000000000001</v>
+      </c>
+      <c r="D247" s="6">
+        <v>163.16</v>
+      </c>
+      <c r="E247" s="6">
+        <v>177.19</v>
+      </c>
+      <c r="F247" s="6">
+        <v>0.29037000000000002</v>
       </c>
     </row>
   </sheetData>
